--- a/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
+++ b/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/code/kotlin/uci_database/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D8BFA-9195-CA44-A460-2FCD89DCCFF6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052B66E-983C-264B-9F73-9D6A60890A01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2800" windowWidth="30400" windowHeight="15760" xr2:uid="{F4244904-B6A7-6E40-87EB-B56134163D3B}"/>
+    <workbookView xWindow="2120" yWindow="3740" windowWidth="30400" windowHeight="15500" xr2:uid="{F4244904-B6A7-6E40-87EB-B56134163D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="214">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iabetes 130-US hospitals for years 1999-2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ecoli</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +540,219 @@
   </si>
   <si>
     <t>1990-05-15</t>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Abalone</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Absenteeism+at+work</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Adult</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Anuran+Calls+%28MFCCs%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Avila</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Bank+Marketing</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/banknote+authentication</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/BLE+RSSI+Dataset+for+Indoor+localization+and+Navigation</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Blood+Transfusion+Service+Center</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Balance+Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Breast+Cancer</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Breast+Cancer+Coimbra</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Breast+Tissue</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Car+Evaluation</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Census-Income+%28KDD%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Chess+%28King-Rook+vs.+King%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Chess+%28King-Rook+vs.+King-Pawn%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Congressional+Voting+Records</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Connect-4</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Contraceptive+Method+Choice</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Covertype</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Credit+Approval</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/default+of+credit+card+clients</t>
+  </si>
+  <si>
+    <t>Diabetes 130-US hospitals for years 1999-2008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Diabetes+130-US+hospitals+for+years+1999-2008</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Ecoli</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Fertility</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Firm-Teacher_Clave-Direction_Classification</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Glass+Identification</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Haberman%27s+Survival</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Hayes-Roth</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Hepatitis</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/HTRU2</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Image+Segmentation</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Iris</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Letter+Recognition</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Localization+Data+for+Person+Activity</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/MAGIC+Gamma+Telescope</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Mammographic+Mass</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/MONK%27s+Problems</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Mushroom</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Nursery</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Occupancy+Detection+</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Page+Blocks+Classification</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Pittsburgh+Bridges</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Poker+Hand</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Post-Operative+Patient</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Primary+Tumor</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Record+Linkage+Comparison+Patterns</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/seeds</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Skin+Segmentation</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Statlog+%28Australian+Credit+Approval%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Statlog+%28German+Credit+Data%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Statlog+%28Landsat+Satellite%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Statlog+%28Shuttle%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Statlog+%28Vehicle+Silhouettes%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/SUSY</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Teaching+Assistant+Evaluation</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Tic-Tac-Toe+Endgame</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Turkiye+Student+Evaluation</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/User+Knowledge+Modeling</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/WESAD+%28Wearable+Stress+and+Affect+Detection%29</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Wholesale+customers</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Wine</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Wine+Quality</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Wireless+Indoor+Localization</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Yeast</t>
+  </si>
+  <si>
+    <t>http://archive.ics.uci.edu/ml/datasets/Zoo</t>
   </si>
 </sst>
 </file>
@@ -553,7 +762,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -587,6 +796,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -605,12 +823,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,9 +856,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -951,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DB872D-93F4-4D4C-AEE3-A4444784B4ED}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="97" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E69"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -961,9 +1189,10 @@
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -979,8 +1208,11 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17">
+      <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -994,10 +1226,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17">
+        <v>85</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1011,10 +1246,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17">
+        <v>86</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1028,10 +1266,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17">
+        <v>87</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1045,10 +1286,13 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17">
+        <v>88</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1062,10 +1306,13 @@
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17">
+        <v>89</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1079,10 +1326,13 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17">
+        <v>90</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1096,10 +1346,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17">
+        <v>91</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1113,10 +1366,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17">
+        <v>92</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1130,10 +1386,13 @@
         <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17">
+        <v>93</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1147,10 +1406,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17">
+        <v>94</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1164,10 +1426,13 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1181,10 +1446,13 @@
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17">
+        <v>96</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1198,10 +1466,13 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17">
+        <v>97</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1212,13 +1483,16 @@
         <v>1728</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17">
+        <v>98</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1232,7 +1506,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17">
@@ -1249,7 +1526,10 @@
         <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17">
@@ -1266,7 +1546,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
@@ -1283,7 +1566,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17">
@@ -1300,7 +1586,10 @@
         <v>27</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
@@ -1317,9 +1606,11 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="17">
       <c r="A22" s="2" t="s">
@@ -1335,9 +1626,11 @@
         <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="17">
       <c r="A23" s="2" t="s">
@@ -1353,9 +1646,11 @@
         <v>33</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="17">
       <c r="A24" s="2" t="s">
@@ -1371,13 +1666,15 @@
         <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="17">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="B25" s="2">
         <v>55</v>
@@ -1389,13 +1686,15 @@
         <v>8</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="17">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <v>8</v>
@@ -1407,13 +1706,15 @@
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="17">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
         <v>10</v>
@@ -1425,13 +1726,15 @@
         <v>8</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="17">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
         <v>20</v>
@@ -1440,16 +1743,18 @@
         <v>10800</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="17">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2">
         <v>10</v>
@@ -1458,16 +1763,18 @@
         <v>214</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
@@ -1479,13 +1786,15 @@
         <v>5</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="17">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>5</v>
@@ -1497,13 +1806,15 @@
         <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="17">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>19</v>
@@ -1515,12 +1826,15 @@
         <v>8</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="17">
+        <v>114</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>9</v>
@@ -1529,15 +1843,18 @@
         <v>17898</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17">
+      <c r="A34" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>19</v>
@@ -1546,15 +1863,18 @@
         <v>2310</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17">
+        <v>116</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>4</v>
@@ -1566,12 +1886,15 @@
         <v>8</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17">
+        <v>117</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2">
         <v>16</v>
@@ -1583,12 +1906,15 @@
         <v>14</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17">
+        <v>118</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2">
         <v>8</v>
@@ -1600,12 +1926,15 @@
         <v>8</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17">
+        <v>119</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2">
         <v>11</v>
@@ -1614,15 +1943,18 @@
         <v>19020</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17">
+        <v>120</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2">
         <v>6</v>
@@ -1634,12 +1966,15 @@
         <v>8</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17">
+        <v>121</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
         <v>7</v>
@@ -1648,15 +1983,18 @@
         <v>432</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17">
+        <v>122</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2">
         <v>22</v>
@@ -1668,12 +2006,15 @@
         <v>8</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17">
+        <v>102</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
         <v>8</v>
@@ -1685,12 +2026,15 @@
         <v>11</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17">
+        <v>98</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17">
       <c r="A43" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
         <v>7</v>
@@ -1702,12 +2046,15 @@
         <v>14</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17">
+        <v>123</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
         <v>10</v>
@@ -1719,12 +2066,15 @@
         <v>14</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="17">
+        <v>124</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
         <v>13</v>
@@ -1733,15 +2083,18 @@
         <v>108</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17">
+        <v>125</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
         <v>11</v>
@@ -1753,12 +2106,15 @@
         <v>27</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17">
+        <v>126</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2">
         <v>8</v>
@@ -1770,12 +2126,15 @@
         <v>8</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17">
+        <v>127</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17">
       <c r="A48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2">
         <v>17</v>
@@ -1787,12 +2146,15 @@
         <v>8</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17">
+        <v>114</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17">
       <c r="A49" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2">
         <v>12</v>
@@ -1801,15 +2163,18 @@
         <v>5749132</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17">
+        <v>128</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2">
         <v>7</v>
@@ -1821,12 +2186,15 @@
         <v>8</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17">
+        <v>129</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="2">
         <v>4</v>
@@ -1838,12 +2206,15 @@
         <v>14</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17">
+        <v>130</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2">
         <v>14</v>
@@ -1855,12 +2226,15 @@
         <v>33</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="17">
+        <v>83</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17">
       <c r="A53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>20</v>
@@ -1872,12 +2246,15 @@
         <v>33</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17">
+        <v>131</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17">
       <c r="A54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="2">
         <v>13</v>
@@ -1889,12 +2266,15 @@
         <v>8</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17">
+        <v>84</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="2">
         <v>36</v>
@@ -1903,15 +2283,18 @@
         <v>6435</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17">
+        <v>132</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="2">
         <v>9</v>
@@ -1920,15 +2303,18 @@
         <v>58000</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="17">
+        <v>83</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2">
         <v>18</v>
@@ -1937,15 +2323,18 @@
         <v>946</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17">
+      <c r="F57" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2">
         <v>18</v>
@@ -1954,15 +2343,18 @@
         <v>5000000</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17">
+        <v>133</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2">
         <v>5</v>
@@ -1971,15 +2363,18 @@
         <v>151</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17">
+        <v>134</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17">
       <c r="A60" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2">
         <v>9</v>
@@ -1991,12 +2386,15 @@
         <v>27</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17">
+        <v>135</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17">
       <c r="A61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2">
         <v>33</v>
@@ -2005,15 +2403,18 @@
         <v>5820</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17">
+        <v>136</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
@@ -2025,12 +2426,15 @@
         <v>14</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17">
+        <v>137</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2">
         <v>12</v>
@@ -2042,12 +2446,15 @@
         <v>14</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17">
+        <v>138</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2">
         <v>8</v>
@@ -2059,12 +2466,15 @@
         <v>9</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="17">
+        <v>139</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2">
         <v>13</v>
@@ -2073,15 +2483,18 @@
         <v>178</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="17">
+        <v>140</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66" s="2">
         <v>12</v>
@@ -2093,12 +2506,15 @@
         <v>9</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="17">
+        <v>141</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2">
         <v>7</v>
@@ -2110,12 +2526,15 @@
         <v>14</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17">
+        <v>142</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2">
         <v>8</v>
@@ -2124,15 +2543,18 @@
         <v>1484</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="17">
+        <v>108</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2">
         <v>7</v>
@@ -2144,17 +2566,20 @@
         <v>8</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17">
+        <v>143</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" ht="17">
+    <row r="71" spans="1:6" ht="17">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2165,6 +2590,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A54" r:id="rId1" display="http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29" xr:uid="{DD2B43B8-0A5E-8F46-9C23-0C437DC4EE56}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{10CA5563-77A2-D54E-BA99-65431E6054A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
+++ b/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/code/kotlin/uci_database/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4052B66E-983C-264B-9F73-9D6A60890A01}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B31CA-BF55-254D-8559-89AFD0D88F72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="3740" windowWidth="30400" windowHeight="15500" xr2:uid="{F4244904-B6A7-6E40-87EB-B56134163D3B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$70</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="211">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BLE RSSI Dataset for Indoor localization and Navigation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Blood Transfusion Service Center
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,9 +385,6 @@
     <t>2013-04-16</t>
   </si>
   <si>
-    <t>2018-01-25</t>
-  </si>
-  <si>
     <t>2008-10-03</t>
   </si>
   <si>
@@ -565,9 +558,6 @@
   </si>
   <si>
     <t>http://archive.ics.uci.edu/ml/datasets/banknote+authentication</t>
-  </si>
-  <si>
-    <t>http://archive.ics.uci.edu/ml/datasets/BLE+RSSI+Dataset+for+Indoor+localization+and+Navigation</t>
   </si>
   <si>
     <t>http://archive.ics.uci.edu/ml/datasets/Blood+Transfusion+Service+Center</t>
@@ -1177,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DB872D-93F4-4D4C-AEE3-A4444784B4ED}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1209,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
@@ -1226,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
@@ -1246,10 +1236,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
@@ -1266,10 +1256,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
@@ -1286,10 +1276,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1306,10 +1296,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
@@ -1326,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17">
@@ -1346,10 +1336,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17">
@@ -1366,10 +1356,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17">
@@ -1377,19 +1367,19 @@
         <v>18</v>
       </c>
       <c r="B10" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>6611</v>
+        <v>748</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
@@ -1397,19 +1387,19 @@
         <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>748</v>
+        <v>286</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17">
@@ -1417,19 +1407,19 @@
         <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17">
@@ -1440,16 +1430,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17">
@@ -1457,19 +1447,19 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
-        <v>106</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>1728</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
@@ -1477,39 +1467,39 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
-        <v>1728</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>299285</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>299285</v>
+        <v>28056</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17">
@@ -1517,39 +1507,39 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
-        <v>28056</v>
+        <v>3196</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <v>3196</v>
+        <v>435</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
@@ -1557,59 +1547,59 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>435</v>
+        <v>67557</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
-        <v>67557</v>
+        <v>1473</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>163</v>
+        <v>102</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2">
-        <v>1473</v>
+        <v>581012</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
@@ -1617,79 +1607,79 @@
         <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
-        <v>581012</v>
+        <v>690</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>690</v>
+        <v>30000</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C24" s="2">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17">
       <c r="A25" s="2" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2">
-        <v>100000</v>
+        <v>336</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17">
@@ -1697,19 +1687,19 @@
         <v>35</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
@@ -1717,39 +1707,39 @@
         <v>36</v>
       </c>
       <c r="B27" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
-        <v>100</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>10800</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17">
       <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>214</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="2">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2">
-        <v>10800</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17">
@@ -1757,39 +1747,39 @@
         <v>46</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17">
@@ -1797,19 +1787,19 @@
         <v>39</v>
       </c>
       <c r="B31" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>175</v>
+        <v>112</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17">
@@ -1817,39 +1807,39 @@
         <v>40</v>
       </c>
       <c r="B32" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
-        <v>155</v>
+        <v>17898</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2">
-        <v>17898</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>2310</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17">
@@ -1857,19 +1847,19 @@
         <v>43</v>
       </c>
       <c r="B34" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2">
-        <v>2310</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>82</v>
+        <v>150</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
@@ -1877,39 +1867,39 @@
         <v>44</v>
       </c>
       <c r="B35" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2">
-        <v>20000</v>
+        <v>164860</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17">
@@ -1917,19 +1907,19 @@
         <v>48</v>
       </c>
       <c r="B37" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C37" s="2">
-        <v>164860</v>
+        <v>19020</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17">
@@ -1937,19 +1927,19 @@
         <v>49</v>
       </c>
       <c r="B38" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>19020</v>
+        <v>961</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17">
@@ -1957,19 +1947,19 @@
         <v>50</v>
       </c>
       <c r="B39" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>961</v>
+        <v>432</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17">
@@ -1977,19 +1967,19 @@
         <v>51</v>
       </c>
       <c r="B40" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2">
-        <v>432</v>
+        <v>8124</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17">
@@ -1997,19 +1987,19 @@
         <v>52</v>
       </c>
       <c r="B41" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C41" s="2">
-        <v>8124</v>
+        <v>12960</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17">
@@ -2017,19 +2007,19 @@
         <v>53</v>
       </c>
       <c r="B42" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="2">
-        <v>12960</v>
+        <v>20560</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17">
@@ -2037,19 +2027,19 @@
         <v>54</v>
       </c>
       <c r="B43" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C43" s="2">
-        <v>20560</v>
+        <v>5473</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
@@ -2057,19 +2047,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
-        <v>5473</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17">
@@ -2077,19 +2067,19 @@
         <v>56</v>
       </c>
       <c r="B45" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2">
-        <v>108</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>82</v>
+        <v>1025010</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
@@ -2097,19 +2087,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C46" s="2">
-        <v>1025010</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
@@ -2117,19 +2107,19 @@
         <v>58</v>
       </c>
       <c r="B47" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
-        <v>90</v>
+        <v>339</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
@@ -2137,79 +2127,79 @@
         <v>59</v>
       </c>
       <c r="B48" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C48" s="2">
-        <v>339</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>5749132</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17">
       <c r="A49" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2">
-        <v>5749132</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>82</v>
+        <v>210</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2">
-        <v>210</v>
+        <v>245057</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>245057</v>
+        <v>690</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
@@ -2217,19 +2207,19 @@
         <v>63</v>
       </c>
       <c r="B52" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C52" s="2">
-        <v>690</v>
+        <v>1000</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17">
@@ -2237,19 +2227,19 @@
         <v>64</v>
       </c>
       <c r="B53" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17">
@@ -2257,19 +2247,19 @@
         <v>65</v>
       </c>
       <c r="B54" s="2">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2">
-        <v>270</v>
+        <v>6435</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
@@ -2277,19 +2267,19 @@
         <v>66</v>
       </c>
       <c r="B55" s="2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2">
-        <v>6435</v>
+        <v>58000</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
@@ -2297,19 +2287,19 @@
         <v>67</v>
       </c>
       <c r="B56" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2">
-        <v>58000</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>42</v>
+        <v>946</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
@@ -2320,16 +2310,16 @@
         <v>18</v>
       </c>
       <c r="C57" s="2">
-        <v>946</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>82</v>
+        <v>5000000</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17">
@@ -2337,19 +2327,19 @@
         <v>69</v>
       </c>
       <c r="B58" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C58" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>42</v>
+        <v>151</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
@@ -2357,19 +2347,19 @@
         <v>70</v>
       </c>
       <c r="B59" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C59" s="2">
-        <v>151</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>82</v>
+        <v>958</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
@@ -2377,19 +2367,19 @@
         <v>71</v>
       </c>
       <c r="B60" s="2">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C60" s="2">
-        <v>958</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>27</v>
+        <v>5820</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17">
@@ -2397,59 +2387,59 @@
         <v>72</v>
       </c>
       <c r="B61" s="2">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2">
-        <v>5820</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>82</v>
+        <v>403</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C62" s="2">
-        <v>403</v>
+        <v>63000000</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2">
-        <v>63000000</v>
+        <v>440</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17">
@@ -2457,19 +2447,19 @@
         <v>74</v>
       </c>
       <c r="B64" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2">
-        <v>440</v>
+        <v>178</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
@@ -2477,19 +2467,19 @@
         <v>75</v>
       </c>
       <c r="B65" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" s="2">
-        <v>178</v>
+        <v>4898</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17">
@@ -2497,39 +2487,39 @@
         <v>76</v>
       </c>
       <c r="B66" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2">
-        <v>4898</v>
+        <v>2000</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
       <c r="A67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="2">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1484</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="2">
-        <v>7</v>
-      </c>
-      <c r="C67" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E67" s="6" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17">
@@ -2537,40 +2527,27 @@
         <v>79</v>
       </c>
       <c r="B68" s="2">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2">
+        <v>101</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="2">
-        <v>1484</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E68" s="6" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17">
-      <c r="A69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="2">
-        <v>7</v>
-      </c>
-      <c r="C69" s="2">
-        <v>101</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="17">
       <c r="A70" s="2"/>
@@ -2579,17 +2556,10 @@
       <c r="D70" s="2"/>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:6" ht="17">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A54" r:id="rId1" display="http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29" xr:uid="{DD2B43B8-0A5E-8F46-9C23-0C437DC4EE56}"/>
+    <hyperlink ref="A53" r:id="rId1" display="http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29" xr:uid="{DD2B43B8-0A5E-8F46-9C23-0C437DC4EE56}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{10CA5563-77A2-D54E-BA99-65431E6054A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
+++ b/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/code/kotlin/uci_database/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B31CA-BF55-254D-8559-89AFD0D88F72}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A892040-6909-5842-8055-8F9A1CF2BA5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="3740" windowWidth="30400" windowHeight="15500" xr2:uid="{F4244904-B6A7-6E40-87EB-B56134163D3B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$68</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="205">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Firm-Teacher_Clave-Direction_Classification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Physical</t>
   </si>
   <si>
@@ -424,18 +420,12 @@
     <t>2016-01-26</t>
   </si>
   <si>
-    <t>2014-05-03</t>
-  </si>
-  <si>
     <t>1996-09-01</t>
   </si>
   <si>
     <t>2013-01-17</t>
   </si>
   <si>
-    <t>2015-04-24</t>
-  </si>
-  <si>
     <t>1987-09-01</t>
   </si>
   <si>
@@ -606,20 +596,10 @@
     <t>http://archive.ics.uci.edu/ml/datasets/default+of+credit+card+clients</t>
   </si>
   <si>
-    <t>Diabetes 130-US hospitals for years 1999-2008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://archive.ics.uci.edu/ml/datasets/Diabetes+130-US+hospitals+for+years+1999-2008</t>
-  </si>
-  <si>
     <t>http://archive.ics.uci.edu/ml/datasets/Ecoli</t>
   </si>
   <si>
     <t>http://archive.ics.uci.edu/ml/datasets/Fertility</t>
-  </si>
-  <si>
-    <t>http://archive.ics.uci.edu/ml/datasets/Firm-Teacher_Clave-Direction_Classification</t>
   </si>
   <si>
     <t>http://archive.ics.uci.edu/ml/datasets/Glass+Identification</t>
@@ -1167,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DB872D-93F4-4D4C-AEE3-A4444784B4ED}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1199,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
@@ -1216,10 +1196,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
@@ -1236,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
@@ -1256,10 +1236,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
@@ -1276,10 +1256,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1296,10 +1276,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
@@ -1316,10 +1296,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17">
@@ -1336,10 +1316,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17">
@@ -1356,10 +1336,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17">
@@ -1376,10 +1356,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
@@ -1396,10 +1376,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17">
@@ -1416,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17">
@@ -1436,10 +1416,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17">
@@ -1453,13 +1433,13 @@
         <v>1728</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
@@ -1476,10 +1456,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17">
@@ -1496,10 +1476,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17">
@@ -1516,10 +1496,10 @@
         <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17">
@@ -1536,10 +1516,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
@@ -1556,10 +1536,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17">
@@ -1576,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
@@ -1596,10 +1576,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
@@ -1616,10 +1596,10 @@
         <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
@@ -1636,490 +1616,490 @@
         <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17">
       <c r="A24" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2">
-        <v>100000</v>
+        <v>336</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>336</v>
+        <v>100</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
       </c>
       <c r="C26" s="2">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
-        <v>10800</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>81</v>
+        <v>306</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2">
-        <v>306</v>
+        <v>155</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>171</v>
+        <v>109</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
-        <v>160</v>
+        <v>17898</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>172</v>
+        <v>110</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>19</v>
       </c>
       <c r="C31" s="2">
-        <v>155</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>2310</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
-        <v>17898</v>
+        <v>150</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2">
-        <v>2310</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>20000</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B34" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" s="2">
-        <v>150</v>
+        <v>164860</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C35" s="2">
-        <v>20000</v>
+        <v>19020</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>164860</v>
+        <v>961</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2">
-        <v>19020</v>
+        <v>432</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2">
-        <v>961</v>
+        <v>8124</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2">
-        <v>432</v>
+        <v>12960</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17">
       <c r="A40" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C40" s="2">
-        <v>8124</v>
+        <v>20560</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17">
       <c r="A41" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2">
-        <v>12960</v>
+        <v>5473</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17">
       <c r="A42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C42" s="2">
-        <v>20560</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="2">
-        <v>5473</v>
+        <v>1025010</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>108</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>81</v>
+        <v>90</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2">
-        <v>1025010</v>
+        <v>339</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C46" s="2">
-        <v>90</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>5749132</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C47" s="2">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
@@ -2127,19 +2107,19 @@
         <v>59</v>
       </c>
       <c r="B48" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2">
-        <v>5749132</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>81</v>
+        <v>245057</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17">
@@ -2147,239 +2127,239 @@
         <v>61</v>
       </c>
       <c r="B49" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>210</v>
+        <v>690</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C50" s="2">
-        <v>245057</v>
+        <v>1000</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2">
-        <v>690</v>
+        <v>270</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C52" s="2">
-        <v>1000</v>
+        <v>6435</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" s="2">
-        <v>270</v>
+        <v>58000</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" s="2">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2">
-        <v>6435</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>41</v>
+        <v>946</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>58000</v>
+        <v>5000000</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>946</v>
+        <v>151</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
-        <v>5000000</v>
+        <v>958</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C58" s="2">
-        <v>151</v>
+        <v>5820</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2">
-        <v>958</v>
+        <v>403</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2">
-        <v>5820</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>81</v>
+        <v>63000000</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17">
@@ -2387,179 +2367,139 @@
         <v>72</v>
       </c>
       <c r="B61" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B62" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2">
-        <v>63000000</v>
+        <v>178</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2">
-        <v>440</v>
+        <v>4898</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17">
       <c r="A64" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C64" s="2">
-        <v>178</v>
+        <v>2000</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17">
       <c r="A65" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C65" s="2">
-        <v>4898</v>
+        <v>1484</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
         <v>7</v>
       </c>
       <c r="C66" s="2">
-        <v>2000</v>
+        <v>101</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17">
-      <c r="A67" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="2">
-        <v>8</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1484</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>209</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="17">
-      <c r="A68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="2">
-        <v>7</v>
-      </c>
-      <c r="C68" s="2">
-        <v>101</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" ht="17">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="6"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A53" r:id="rId1" display="http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29" xr:uid="{DD2B43B8-0A5E-8F46-9C23-0C437DC4EE56}"/>
+    <hyperlink ref="A51" r:id="rId1" display="http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29" xr:uid="{DD2B43B8-0A5E-8F46-9C23-0C437DC4EE56}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{10CA5563-77A2-D54E-BA99-65431E6054A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
+++ b/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/database_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/code/kotlin/uci_database/src/main/kotlin/com/growlithe/uci/mysql/excel/origin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A892040-6909-5842-8055-8F9A1CF2BA5F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC602BAB-B890-9C42-AAA9-DF94A06B063B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="3740" windowWidth="30400" windowHeight="15500" xr2:uid="{F4244904-B6A7-6E40-87EB-B56134163D3B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$66</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="199">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image Segmentation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Iris</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pittsburgh Bridges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Poker Hand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,9 +433,6 @@
     <t>2017-02-14</t>
   </si>
   <si>
-    <t>1990-11-01</t>
-  </si>
-  <si>
     <t>1988-07-01</t>
   </si>
   <si>
@@ -468,9 +457,6 @@
     <t>1995-07-01</t>
   </si>
   <si>
-    <t>1990-08-01</t>
-  </si>
-  <si>
     <t>2007-01-01</t>
   </si>
   <si>
@@ -617,9 +603,6 @@
     <t>http://archive.ics.uci.edu/ml/datasets/HTRU2</t>
   </si>
   <si>
-    <t>http://archive.ics.uci.edu/ml/datasets/Image+Segmentation</t>
-  </si>
-  <si>
     <t>http://archive.ics.uci.edu/ml/datasets/Iris</t>
   </si>
   <si>
@@ -648,9 +631,6 @@
   </si>
   <si>
     <t>http://archive.ics.uci.edu/ml/datasets/Page+Blocks+Classification</t>
-  </si>
-  <si>
-    <t>http://archive.ics.uci.edu/ml/datasets/Pittsburgh+Bridges</t>
   </si>
   <si>
     <t>http://archive.ics.uci.edu/ml/datasets/Poker+Hand</t>
@@ -1147,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DB872D-93F4-4D4C-AEE3-A4444784B4ED}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1179,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
@@ -1196,10 +1176,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17">
@@ -1216,10 +1196,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
@@ -1236,10 +1216,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17">
@@ -1256,10 +1236,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17">
@@ -1276,10 +1256,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17">
@@ -1296,10 +1276,10 @@
         <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17">
@@ -1316,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17">
@@ -1336,10 +1316,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17">
@@ -1356,10 +1336,10 @@
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17">
@@ -1376,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17">
@@ -1396,10 +1376,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17">
@@ -1416,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17">
@@ -1433,13 +1413,13 @@
         <v>1728</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17">
@@ -1456,10 +1436,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17">
@@ -1476,10 +1456,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17">
@@ -1496,10 +1476,10 @@
         <v>26</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17">
@@ -1516,10 +1496,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17">
@@ -1536,10 +1516,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17">
@@ -1556,10 +1536,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17">
@@ -1576,10 +1556,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17">
@@ -1596,10 +1576,10 @@
         <v>32</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17">
@@ -1616,10 +1596,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17">
@@ -1636,10 +1616,10 @@
         <v>8</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17">
@@ -1656,15 +1636,15 @@
         <v>8</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2">
         <v>10</v>
@@ -1676,15 +1656,15 @@
         <v>36</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2">
         <v>4</v>
@@ -1696,10 +1676,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17">
@@ -1716,10 +1696,10 @@
         <v>11</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17">
@@ -1736,10 +1716,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17">
@@ -1756,10 +1736,10 @@
         <v>40</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17">
@@ -1767,19 +1747,19 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2">
-        <v>2310</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>80</v>
+        <v>150</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17">
@@ -1787,39 +1767,39 @@
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>20000</v>
+        <v>164860</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17">
@@ -1827,19 +1807,19 @@
         <v>46</v>
       </c>
       <c r="B34" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2">
-        <v>164860</v>
+        <v>19020</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17">
@@ -1847,19 +1827,19 @@
         <v>47</v>
       </c>
       <c r="B35" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
-        <v>19020</v>
+        <v>961</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17">
@@ -1867,19 +1847,19 @@
         <v>48</v>
       </c>
       <c r="B36" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2">
-        <v>961</v>
+        <v>432</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17">
@@ -1887,19 +1867,19 @@
         <v>49</v>
       </c>
       <c r="B37" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>432</v>
+        <v>8124</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17">
@@ -1907,19 +1887,19 @@
         <v>50</v>
       </c>
       <c r="B38" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2">
-        <v>8124</v>
+        <v>12960</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17">
@@ -1927,19 +1907,19 @@
         <v>51</v>
       </c>
       <c r="B39" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>12960</v>
+        <v>20560</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17">
@@ -1947,19 +1927,19 @@
         <v>52</v>
       </c>
       <c r="B40" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" s="2">
-        <v>20560</v>
+        <v>5473</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17">
@@ -1967,19 +1947,19 @@
         <v>53</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2">
-        <v>5473</v>
+        <v>1025010</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17">
@@ -1987,19 +1967,19 @@
         <v>54</v>
       </c>
       <c r="B42" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2">
-        <v>108</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17">
@@ -2007,19 +1987,19 @@
         <v>55</v>
       </c>
       <c r="B43" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2">
-        <v>1025010</v>
+        <v>339</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17">
@@ -2027,99 +2007,99 @@
         <v>56</v>
       </c>
       <c r="B44" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="2">
-        <v>90</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>5749132</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
-        <v>339</v>
+        <v>210</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17">
       <c r="A46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>5749132</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>80</v>
+        <v>245057</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>210</v>
+        <v>690</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C48" s="2">
-        <v>245057</v>
+        <v>1000</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17">
@@ -2127,19 +2107,19 @@
         <v>61</v>
       </c>
       <c r="B49" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="2">
-        <v>690</v>
+        <v>270</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17">
@@ -2147,19 +2127,19 @@
         <v>62</v>
       </c>
       <c r="B50" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C50" s="2">
-        <v>1000</v>
+        <v>6435</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17">
@@ -2167,19 +2147,19 @@
         <v>63</v>
       </c>
       <c r="B51" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
-        <v>270</v>
+        <v>58000</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17">
@@ -2187,19 +2167,19 @@
         <v>64</v>
       </c>
       <c r="B52" s="2">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2">
-        <v>6435</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>40</v>
+        <v>946</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17">
@@ -2207,19 +2187,19 @@
         <v>65</v>
       </c>
       <c r="B53" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2">
-        <v>58000</v>
+        <v>5000000</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17">
@@ -2227,19 +2207,19 @@
         <v>66</v>
       </c>
       <c r="B54" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2">
-        <v>946</v>
+        <v>151</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17">
@@ -2247,19 +2227,19 @@
         <v>67</v>
       </c>
       <c r="B55" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C55" s="2">
-        <v>5000000</v>
+        <v>958</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17">
@@ -2267,19 +2247,19 @@
         <v>68</v>
       </c>
       <c r="B56" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2">
-        <v>151</v>
+        <v>5820</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17">
@@ -2287,79 +2267,79 @@
         <v>69</v>
       </c>
       <c r="B57" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2">
-        <v>958</v>
+        <v>403</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B58" s="2">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2">
-        <v>5820</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>80</v>
+        <v>63000000</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" s="2">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" s="2">
-        <v>63000000</v>
+        <v>178</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17">
@@ -2367,19 +2347,19 @@
         <v>72</v>
       </c>
       <c r="B61" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
-        <v>440</v>
+        <v>4898</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17">
@@ -2387,119 +2367,79 @@
         <v>73</v>
       </c>
       <c r="B62" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C62" s="2">
-        <v>178</v>
+        <v>2000</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17">
       <c r="A63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1484</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="2">
-        <v>12</v>
-      </c>
-      <c r="C63" s="2">
-        <v>4898</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E63" s="6" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2">
         <v>7</v>
       </c>
       <c r="C64" s="2">
-        <v>2000</v>
+        <v>101</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17">
-      <c r="A65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="2">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1484</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17">
-      <c r="A66" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="2">
-        <v>7</v>
-      </c>
-      <c r="C66" s="2">
-        <v>101</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" ht="17">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="6"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5" ht="17">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1" display="http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29" xr:uid="{DD2B43B8-0A5E-8F46-9C23-0C437DC4EE56}"/>
+    <hyperlink ref="A49" r:id="rId1" display="http://archive.ics.uci.edu/ml/datasets/Statlog+%28Heart%29" xr:uid="{DD2B43B8-0A5E-8F46-9C23-0C437DC4EE56}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{10CA5563-77A2-D54E-BA99-65431E6054A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
